--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>samson</t>
   </si>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FD34F70F-A1F4-4FAA-87A9-A1B719D56B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1DF2558-160C-4298-A975-99AB82E97832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="4905" xr2:uid="{8666860D-7FE1-4D9B-88DC-AC3EA951CFC0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="4905" xr2:uid="{8666860D-7FE1-4D9B-88DC-AC3EA951CFC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1:M5"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
   <si>
     <t>samson</t>
   </si>
@@ -41,23 +41,22 @@
     <t>samson.javadala@gmail.com</t>
   </si>
   <si>
-    <t>welcome sam</t>
-  </si>
-  <si>
     <t>wlcome solomon</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>excel updated</t>
+    <t>TASTY</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,17 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792C232-8C48-49DA-8686-6A11D2C361A8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -453,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -461,22 +460,248 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
